--- a/app/common/data/pokemons.xlsx
+++ b/app/common/data/pokemons.xlsx
@@ -1583,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F41" t="n">
         <v>218</v>
